--- a/Data/EC/NIT-9008158277.xlsx
+++ b/Data/EC/NIT-9008158277.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB14D85E-0090-4EA7-BEC2-E7125645380D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D566478A-3834-4B6C-96EA-429F3E781992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{833A546C-5079-4F74-90C9-EAF4F0F0E03D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63D88AEF-14F4-44ED-8D45-BE96DC65C9BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047372573</t>
+  </si>
+  <si>
+    <t>VICTOR ALFONSO GARCIA CASTRO</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
     <t>85487449</t>
   </si>
   <si>
@@ -74,52 +83,43 @@
     <t>1709</t>
   </si>
   <si>
-    <t>1047372573</t>
-  </si>
-  <si>
-    <t>VICTOR ALFONSO GARCIA CASTRO</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
     <t>73198175</t>
   </si>
   <si>
     <t>VICTOR ENRIQUE VILLAR ALVAREZ</t>
   </si>
   <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
     <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -218,7 +218,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -231,9 +233,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,23 +433,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,10 +477,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A7398F-FE24-08EF-CD28-8A3EBB31A31B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{414D0064-6EF7-28E4-10C3-DE5B60EDA189}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4D5838-ECE1-451B-9788-BF815F50A95E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD92CAE-9396-4F16-A8C0-954162405AF7}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1062,10 +1062,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1085,10 +1085,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>689455</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1105,7 +1105,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
@@ -1151,7 +1151,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1174,7 +1174,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1197,7 +1197,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
@@ -1220,7 +1220,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1243,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1266,7 +1266,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1289,7 +1289,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1312,7 +1312,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1335,7 +1335,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1358,7 +1358,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F29" s="24">
         <v>40000</v>

--- a/Data/EC/NIT-9008158277.xlsx
+++ b/Data/EC/NIT-9008158277.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D566478A-3834-4B6C-96EA-429F3E781992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEEDD91C-C980-4D5D-93C0-29316245F4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63D88AEF-14F4-44ED-8D45-BE96DC65C9BD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1AB124FA-4185-4D2B-BE98-2DA5B693A3B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -233,7 +231,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,29 +427,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,19 +468,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{414D0064-6EF7-28E4-10C3-DE5B60EDA189}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02249F5-63B5-2E18-F674-27B83D603F8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD92CAE-9396-4F16-A8C0-954162405AF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7167F4-4182-44C0-9F9F-307352B5EA49}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -907,49 +913,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -957,7 +963,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -973,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9008158277</v>
       </c>
@@ -989,7 +995,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>547578</v>
       </c>
@@ -1058,18 +1064,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>27578</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>781242</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1081,18 +1087,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>40000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1000000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1104,18 +1110,18 @@
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>40000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1000000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1127,18 +1133,18 @@
       <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>40000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1000000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1150,18 +1156,18 @@
       <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>40000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1000000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1173,18 +1179,18 @@
       <c r="D21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>40000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1000000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1196,18 +1202,18 @@
       <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>40000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1000000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1219,18 +1225,18 @@
       <c r="D23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>40000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1000000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1242,18 +1248,18 @@
       <c r="D24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>40000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1000000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1265,18 +1271,18 @@
       <c r="D25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>40000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1000000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1288,18 +1294,18 @@
       <c r="D26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>40000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1000000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1311,18 +1317,18 @@
       <c r="D27" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>40000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1000000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1334,47 +1340,47 @@
       <c r="D28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>40000</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1000000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="26">
         <v>40000</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="26">
         <v>1000000</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="32"/>
+      <c r="C34" s="34"/>
       <c r="H34" s="1" t="s">
         <v>37</v>
       </c>
@@ -1382,10 +1388,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="32"/>
+      <c r="C35" s="34"/>
       <c r="H35" s="1" t="s">
         <v>38</v>
       </c>
